--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="גיליון1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -28,10 +28,10 @@
     <t xml:space="preserve">appID</t>
   </si>
   <si>
-    <t xml:space="preserve">blockchain</t>
+    <t xml:space="preserve">passive income</t>
   </si>
   <si>
-    <t xml:space="preserve">block.chain.technology</t>
+    <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
   </si>
 </sst>
 </file>
@@ -144,7 +144,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -162,7 +162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -28,10 +28,10 @@
     <t xml:space="preserve">appID</t>
   </si>
   <si>
-    <t xml:space="preserve">passive income</t>
+    <t xml:space="preserve">blockchain</t>
   </si>
   <si>
-    <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
+    <t xml:space="preserve">block.chain.technology</t>
   </si>
 </sst>
 </file>
@@ -144,7 +144,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -162,7 +162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">block.chain.technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passive income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
   </si>
 </sst>
 </file>
@@ -141,10 +147,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -170,6 +176,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affiliate marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affiliate.marketing.guide</t>
   </si>
 </sst>
 </file>
@@ -147,10 +153,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -184,6 +190,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">affiliate.marketing.guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passive income ideas</t>
   </si>
 </sst>
 </file>
@@ -153,10 +156,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -198,6 +201,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">passive income ideas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blockchain free</t>
   </si>
 </sst>
 </file>
@@ -156,10 +159,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -209,6 +212,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">blockchain free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helix jump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.singleton.helix</t>
   </si>
 </sst>
 </file>
@@ -159,10 +165,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -220,6 +226,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">blockchain free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">helix jump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.singleton.helix</t>
   </si>
 </sst>
 </file>
@@ -165,10 +159,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -226,14 +220,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">blockchain free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helix jump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.singleton.helix</t>
   </si>
 </sst>
 </file>
@@ -159,10 +165,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:B7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -220,6 +226,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">com.singleton.helix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">space jump</t>
   </si>
 </sst>
 </file>
@@ -165,10 +168,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -234,6 +237,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -34,19 +34,10 @@
     <t xml:space="preserve">block.chain.technology</t>
   </si>
   <si>
-    <t xml:space="preserve">passive income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
-  </si>
-  <si>
     <t xml:space="preserve">affiliate marketing</t>
   </si>
   <si>
     <t xml:space="preserve">affiliate.marketing.guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passive income ideas</t>
   </si>
   <si>
     <t xml:space="preserve">blockchain free</t>
@@ -168,10 +159,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -205,44 +196,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -49,7 +49,13 @@
     <t xml:space="preserve">com.singleton.helix</t>
   </si>
   <si>
-    <t xml:space="preserve">space jump</t>
+    <t xml:space="preserve"> free games helix jump </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show (4)</t>
   </si>
 </sst>
 </file>
@@ -59,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Nachlieli CLM"/>
@@ -88,6 +94,13 @@
       <sz val="10"/>
       <name val="Liberation Mono;Courier New;DejaVu Sans Mono"/>
       <family val="3"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Nachlieli CLM"/>
+      <family val="2"/>
       <charset val="177"/>
     </font>
   </fonts>
@@ -133,12 +146,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -159,10 +180,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -212,15 +233,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" display="Explore"/>
+    <hyperlink ref="D6" r:id="rId2" location="" display="Show (4)"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -180,10 +180,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -247,10 +247,18 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="Explore"/>
-    <hyperlink ref="D6" r:id="rId2" location="" display="Show (4)"/>
+    <hyperlink ref="D6" r:id="rId2" display="Show (4)"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve"> free games helix jump </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show (4)</t>
   </si>
 </sst>
 </file>
@@ -180,10 +174,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:B7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="7:7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -233,33 +227,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="Explore"/>
-    <hyperlink ref="D6" r:id="rId2" display="Show (4)"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">com.singleton.helix</t>
   </si>
   <si>
-    <t xml:space="preserve"> free games helix jump </t>
+    <t xml:space="preserve">free games helix jump</t>
   </si>
 </sst>
 </file>
@@ -140,16 +140,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -174,15 +170,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="7:7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.54"/>
   </cols>
@@ -212,7 +208,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -220,22 +216,26 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">free games helix jump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passive income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
   </si>
 </sst>
 </file>
@@ -173,7 +179,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -233,9 +239,13 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -49,13 +49,13 @@
     <t xml:space="preserve">com.singleton.helix</t>
   </si>
   <si>
-    <t xml:space="preserve">free games helix jump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passive income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
+    <t xml:space="preserve"> free games helix jump </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show (4)</t>
   </si>
 </sst>
 </file>
@@ -146,12 +146,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -179,12 +183,12 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.54"/>
   </cols>
@@ -214,7 +218,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -222,32 +226,40 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" display="Explore"/>
+    <hyperlink ref="D6" r:id="rId2" display="Show (4)"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -180,10 +180,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -245,14 +245,6 @@
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">affiliate.marketing.guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blockchain free</t>
   </si>
   <si>
     <t xml:space="preserve">helix jump</t>
@@ -183,7 +180,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:B7"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -221,30 +218,30 @@
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -177,10 +177,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:B4"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -242,6 +242,14 @@
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t xml:space="preserve">Show (4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stretchy Taxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.singleton.strechy</t>
   </si>
 </sst>
 </file>
@@ -177,10 +183,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7:B7"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -250,6 +256,14 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">com.singleton.helix</t>
   </si>
   <si>
-    <t xml:space="preserve"> free games helix jump </t>
+    <t xml:space="preserve">free games helix jump </t>
   </si>
   <si>
     <t xml:space="preserve">Explore</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Show (4)</t>
   </si>
   <si>
-    <t xml:space="preserve">Stretchy Taxi</t>
+    <t xml:space="preserve">stretchy taxi</t>
   </si>
   <si>
     <t xml:space="preserve">com.singleton.strechy</t>
@@ -149,16 +149,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -186,7 +182,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -221,32 +217,32 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -259,10 +255,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -49,16 +49,16 @@
     <t xml:space="preserve">free games helix jump </t>
   </si>
   <si>
-    <t xml:space="preserve">Explore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show (4)</t>
-  </si>
-  <si>
     <t xml:space="preserve">stretchy taxi</t>
   </si>
   <si>
     <t xml:space="preserve">com.singleton.strechy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passive income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
   </si>
 </sst>
 </file>
@@ -179,16 +179,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.54"/>
   </cols>
   <sheetData>
@@ -239,12 +239,8 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -256,17 +252,21 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="Explore"/>
-    <hyperlink ref="D6" r:id="rId2" display="Show (4)"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">com.singleton.helix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helix jump 2</t>
   </si>
   <si>
     <t xml:space="preserve">free games helix jump </t>
@@ -179,10 +182,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -226,7 +229,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -234,7 +237,7 @@
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -252,18 +255,26 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">helix jump 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free games helix jump </t>
   </si>
   <si>
     <t xml:space="preserve">stretchy taxi</t>
@@ -71,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Nachlieli CLM"/>
@@ -100,13 +97,6 @@
       <sz val="10"/>
       <name val="Liberation Mono;Courier New;DejaVu Sans Mono"/>
       <family val="3"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Nachlieli CLM"/>
-      <family val="2"/>
       <charset val="177"/>
     </font>
   </fonts>
@@ -152,16 +142,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,10 +168,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:B10"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -235,45 +221,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">space</t>
   </si>
 </sst>
 </file>
@@ -168,10 +171,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -245,6 +248,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="sheet1 -1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">space</t>
   </si>
 </sst>
 </file>
@@ -171,7 +168,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
@@ -248,21 +245,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,רגיל"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,רגיל"&amp;12עמוד &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12עמוד &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helix</t>
   </si>
 </sst>
 </file>
@@ -168,10 +171,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -245,6 +248,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1 -1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="sheet1 -1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t xml:space="preserve">helix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stretchy</t>
   </si>
 </sst>
 </file>
@@ -171,16 +180,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.54"/>
   </cols>
   <sheetData>
@@ -254,6 +263,30 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -46,9 +46,6 @@
     <t xml:space="preserve">com.singleton.helix</t>
   </si>
   <si>
-    <t xml:space="preserve">helix jump 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">stretchy taxi</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">stretchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taxi game</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -230,47 +230,47 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -278,7 +278,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -286,7 +286,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -40,12 +40,6 @@
     <t xml:space="preserve">affiliate.marketing.guide</t>
   </si>
   <si>
-    <t xml:space="preserve">helix jump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.singleton.helix</t>
-  </si>
-  <si>
     <t xml:space="preserve">stretchy taxi</t>
   </si>
   <si>
@@ -56,9 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">helix</t>
   </si>
   <si>
     <t xml:space="preserve">passive</t>
@@ -180,10 +171,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -225,7 +216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -238,15 +229,15 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -257,36 +248,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -58,10 +58,13 @@
     <t xml:space="preserve">income</t>
   </si>
   <si>
-    <t xml:space="preserve">stretchy</t>
-  </si>
-  <si>
     <t xml:space="preserve">taxi game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passive income ideas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passive income apps</t>
   </si>
 </sst>
 </file>
@@ -171,10 +174,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -248,12 +251,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">block.chain.technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affiliate marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affiliate.marketing.guide</t>
   </si>
   <si>
     <t xml:space="preserve">stretchy taxi</t>
@@ -174,10 +168,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -203,7 +197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -211,7 +205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -224,28 +218,28 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -253,18 +247,10 @@
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">passive income apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitcoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.hamxa.shaynachim</t>
   </si>
 </sst>
 </file>
@@ -168,10 +174,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -253,6 +259,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -174,10 +174,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -275,6 +275,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -55,16 +55,25 @@
     <t xml:space="preserve">taxi game</t>
   </si>
   <si>
+    <t xml:space="preserve">passive income apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitcoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.hamxa.shaynachim</t>
+  </si>
+  <si>
     <t xml:space="preserve">passive income ideas</t>
   </si>
   <si>
-    <t xml:space="preserve">passive income apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bitcoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.hamxa.shaynachim</t>
+    <t xml:space="preserve">best bitcoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitcoin course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taxi</t>
   </si>
 </sst>
 </file>
@@ -174,10 +183,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12:B12"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -243,9 +252,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -253,7 +262,7 @@
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -261,15 +270,15 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -280,6 +289,30 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">taxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitcoin for beginners  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitcoin beginners  </t>
   </si>
 </sst>
 </file>
@@ -183,10 +189,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -316,6 +322,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -28,12 +28,6 @@
     <t xml:space="preserve">appID</t>
   </si>
   <si>
-    <t xml:space="preserve">blockchain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">block.chain.technology</t>
-  </si>
-  <si>
     <t xml:space="preserve">stretchy taxi</t>
   </si>
   <si>
@@ -46,18 +40,9 @@
     <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
   </si>
   <si>
-    <t xml:space="preserve">passive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income</t>
-  </si>
-  <si>
     <t xml:space="preserve">taxi game</t>
   </si>
   <si>
-    <t xml:space="preserve">passive income apps</t>
-  </si>
-  <si>
     <t xml:space="preserve">bitcoin</t>
   </si>
   <si>
@@ -67,6 +52,9 @@
     <t xml:space="preserve">passive income ideas</t>
   </si>
   <si>
+    <t xml:space="preserve">taxi free game</t>
+  </si>
+  <si>
     <t xml:space="preserve">best bitcoin</t>
   </si>
   <si>
@@ -80,6 +68,21 @@
   </si>
   <si>
     <t xml:space="preserve">bitcoin beginners  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">taxi game free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taxi free challenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taxi offline game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">challenge taxi game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offline taxi game</t>
   </si>
 </sst>
 </file>
@@ -189,10 +192,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -218,7 +221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -226,33 +229,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -260,18 +263,18 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -279,31 +282,31 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,15 +314,15 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -327,7 +330,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -335,7 +338,15 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">offline taxi game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taxi free game challenge</t>
   </si>
 </sst>
 </file>
@@ -192,10 +195,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A17:A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -349,6 +352,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -28,19 +28,16 @@
     <t xml:space="preserve">appID</t>
   </si>
   <si>
-    <t xml:space="preserve">stretchy taxi</t>
+    <t xml:space="preserve">passive income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taxi game</t>
   </si>
   <si>
     <t xml:space="preserve">com.singleton.strechy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passive income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taxi game</t>
   </si>
   <si>
     <t xml:space="preserve">bitcoin</t>
@@ -195,9 +192,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
@@ -216,7 +213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -224,7 +221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -234,7 +231,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -242,21 +239,21 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -269,7 +266,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -277,7 +274,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -285,15 +282,15 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -301,23 +298,23 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,7 +322,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,7 +330,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -341,7 +338,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,15 +346,23 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">taxi free game challenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best bitcoin</t>
   </si>
 </sst>
 </file>
@@ -192,10 +195,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19:B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -231,39 +234,39 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -271,39 +274,39 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -311,7 +314,7 @@
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -319,7 +322,7 @@
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -327,7 +330,7 @@
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -335,15 +338,15 @@
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -351,7 +354,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -359,10 +362,18 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="sheet1 -1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -34,55 +34,31 @@
     <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
   </si>
   <si>
-    <t xml:space="preserve">taxi game</t>
+    <t xml:space="preserve">bitcoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.hamxa.shaynachim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passive income ideas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best bitcoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitcoin course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taxi</t>
   </si>
   <si>
     <t xml:space="preserve">com.singleton.strechy</t>
   </si>
   <si>
-    <t xml:space="preserve">bitcoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.hamxa.shaynachim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passive income ideas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taxi free game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">best bitcoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bitcoin course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taxi</t>
-  </si>
-  <si>
     <t xml:space="preserve">bitcoin for beginners  </t>
   </si>
   <si>
     <t xml:space="preserve">bitcoin beginners  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">taxi game free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taxi free challenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taxi offline game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">challenge taxi game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">offline taxi game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taxi free game challenge</t>
   </si>
   <si>
     <t xml:space="preserve">Best bitcoin</t>
@@ -195,10 +171,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -232,25 +208,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -258,21 +234,21 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -280,100 +256,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -46,22 +46,22 @@
     <t xml:space="preserve">best bitcoin</t>
   </si>
   <si>
-    <t xml:space="preserve">bitcoin course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taxi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.singleton.strechy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bitcoin for beginners  </t>
-  </si>
-  <si>
     <t xml:space="preserve">bitcoin beginners  </t>
   </si>
   <si>
     <t xml:space="preserve">Best bitcoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powerful quotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.sugar.powerfulquotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blockchain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">block.chain.technology</t>
   </si>
 </sst>
 </file>
@@ -174,7 +174,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -224,7 +224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -234,23 +234,23 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -258,15 +258,15 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -274,10 +274,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">passive income</t>
   </si>
   <si>
-    <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject</t>
+    <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject2</t>
   </si>
   <si>
     <t xml:space="preserve">bitcoin</t>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t xml:space="preserve">block.chain.technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affiliate marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affiliate.marketing.guide</t>
   </si>
 </sst>
 </file>
@@ -171,10 +177,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -192,7 +198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -208,7 +214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -286,6 +292,22 @@
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">com.sugar.powerfulquotes</t>
   </si>
   <si>
-    <t xml:space="preserve">blockchain</t>
+    <t xml:space="preserve">blockchain technology</t>
   </si>
   <si>
     <t xml:space="preserve">block.chain.technology</t>
@@ -180,7 +180,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -278,7 +278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">appID</t>
   </si>
   <si>
-    <t xml:space="preserve">passive income</t>
+    <t xml:space="preserve">earn passive income</t>
   </si>
   <si>
     <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject2</t>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">Best bitcoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">powerful quotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.sugar.powerfulquotes</t>
   </si>
   <si>
     <t xml:space="preserve">blockchain technology</t>
@@ -177,10 +171,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -198,7 +192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -238,7 +232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -264,26 +258,26 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -294,20 +288,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
   <si>
     <t xml:space="preserve">appID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powerful Positive Motivation Quotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.sugar.powerfulquotes</t>
   </si>
   <si>
     <t xml:space="preserve">earn passive income</t>
@@ -171,15 +177,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.54"/>
   </cols>
@@ -192,7 +198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -200,7 +206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -208,47 +214,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -256,36 +262,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -294,6 +300,44 @@
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -55,6 +55,12 @@
     <t xml:space="preserve">bitcoin beginners  </t>
   </si>
   <si>
+    <t xml:space="preserve">affiliate marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affiliate.marketing.guide</t>
+  </si>
+  <si>
     <t xml:space="preserve">Best bitcoin</t>
   </si>
   <si>
@@ -62,12 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">block.chain.technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affiliate marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affiliate.marketing.guide</t>
   </si>
 </sst>
 </file>
@@ -177,10 +177,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -254,33 +254,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="11" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -294,26 +294,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -324,20 +324,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">block.chain.technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passive income</t>
   </si>
 </sst>
 </file>
@@ -177,10 +180,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9:B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -294,66 +297,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -40,37 +40,28 @@
     <t xml:space="preserve">passive.income.nadi.myfirstdrawermenuproject2</t>
   </si>
   <si>
-    <t xml:space="preserve">bitcoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.hamxa.shaynachim</t>
+    <t xml:space="preserve">blockchain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">block.chain.technology</t>
   </si>
   <si>
     <t xml:space="preserve">passive income ideas</t>
   </si>
   <si>
-    <t xml:space="preserve">best bitcoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bitcoin beginners  </t>
-  </si>
-  <si>
     <t xml:space="preserve">affiliate marketing</t>
   </si>
   <si>
     <t xml:space="preserve">affiliate.marketing.guide</t>
   </si>
   <si>
-    <t xml:space="preserve">Best bitcoin</t>
-  </si>
-  <si>
     <t xml:space="preserve">blockchain technology</t>
   </si>
   <si>
-    <t xml:space="preserve">block.chain.technology</t>
-  </si>
-  <si>
     <t xml:space="preserve">passive income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travelpayouts</t>
   </si>
 </sst>
 </file>
@@ -182,8 +173,8 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -246,112 +237,96 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -171,10 +171,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -272,7 +272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -282,34 +282,34 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -323,10 +323,6 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E1E94B-99AE-4D9F-A097-F4ADAA87366B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C649ACA4-EC47-49CB-813A-313951A531F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>keyword</t>
   </si>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>travelpayouts</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>com.lifeomic.lifeextend</t>
   </si>
 </sst>
 </file>
@@ -879,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B22"/>
+      <selection activeCell="A4" activeCellId="3" sqref="A22:XFD22 A18:XFD18 A11:XFD11 A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,103 +912,103 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1022,50 +1016,18 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C649ACA4-EC47-49CB-813A-313951A531F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC19ACB-9FA4-4E67-BA91-F07EF8A26F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
   <si>
     <t>keyword</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>travelpayouts</t>
+  </si>
+  <si>
+    <t>duty.pare.myapp</t>
+  </si>
+  <si>
+    <t>duty free</t>
   </si>
 </sst>
 </file>
@@ -873,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" activeCellId="3" sqref="A22:XFD22 A18:XFD18 A11:XFD11 A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,66 +918,66 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -984,15 +990,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -1000,10 +1006,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1011,23 +1017,63 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC19ACB-9FA4-4E67-BA91-F07EF8A26F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243D46C2-02E7-4753-B8FD-07764E5AA714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -54,25 +54,25 @@
     <t>passive income ideas</t>
   </si>
   <si>
-    <t>affiliate marketing</t>
-  </si>
-  <si>
-    <t>affiliate.marketing.guide</t>
-  </si>
-  <si>
     <t>blockchain technology</t>
   </si>
   <si>
     <t>passive income</t>
   </si>
   <si>
-    <t>travelpayouts</t>
-  </si>
-  <si>
     <t>duty.pare.myapp</t>
   </si>
   <si>
     <t>duty free</t>
+  </si>
+  <si>
+    <t>powerful quotes</t>
+  </si>
+  <si>
+    <t>motivation quotes</t>
+  </si>
+  <si>
+    <t>optimistic quotes</t>
   </si>
 </sst>
 </file>
@@ -882,7 +882,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,10 +918,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,15 +942,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -974,15 +974,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -998,15 +998,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1022,18 +1022,18 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1046,23 +1046,23 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1070,10 +1070,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243D46C2-02E7-4753-B8FD-07764E5AA714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7276A15-956B-4E3C-8215-F59658BE2BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>keyword</t>
   </si>
@@ -54,9 +54,6 @@
     <t>passive income ideas</t>
   </si>
   <si>
-    <t>blockchain technology</t>
-  </si>
-  <si>
     <t>passive income</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>optimistic quotes</t>
+  </si>
+  <si>
+    <t>duty free products</t>
   </si>
 </sst>
 </file>
@@ -879,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,10 +918,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,15 +942,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -958,18 +958,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -977,55 +977,55 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,42 +1038,18 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
         <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/kidum.xlsx
+++ b/kidum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7276A15-956B-4E3C-8215-F59658BE2BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3656E3-F97E-4F55-AB7F-2DF6CDC8D98A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>keyword</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>duty free products</t>
+  </si>
+  <si>
+    <t>הכנסה פסיבית</t>
+  </si>
+  <si>
+    <t>affiliate marketing</t>
+  </si>
+  <si>
+    <t>passive.income.nadi.affiliatemarketingforpassiveincome</t>
   </si>
 </sst>
 </file>
@@ -879,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,111 +935,111 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1038,18 +1047,42 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
